--- a/Tools/本地数据表/Sys_Code.xlsx
+++ b/Tools/本地数据表/Sys_Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YouYouTools\本地数据表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90DC418-0CA2-42EB-912A-180B623DA629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA2C164-BD85-4D93-B5C3-1FB89FC13169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,54 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败 账号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败 账号或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect.TimeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg.UserNameExists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login.UnExists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input.UserNameEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input.PwdEmpty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,14 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -419,8 +472,75 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>